--- a/biology/Médecine/Leon_Strehl/Leon_Strehl.xlsx
+++ b/biology/Médecine/Leon_Strehl/Leon_Strehl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Leon Strehl (Czarnoszyce, 6 août 1891 – 1er septembre 1960), est un médecin polonais.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Leon de Strehl est né à Czarnoszyce, région de Czluchow en Poméranie. Il est le fils de Wladyslaw de Strehl et de Kazimiera Czarlinska. La famille de Czarlinski était connue en Poméranie pour sa résistance à la germanisation.
 Leon Strehl effectue sa scolarité à Poznań où il est responsable pour la ville de l’association étudiante résistante contre les occupants. Il obtient son baccalauréat en 1911 et commence ses études de médecine. À partir de janvier 1919, il prend part, avec son père que ses deux frères, à l’insurrection de la Grande-Pologne (Powstanie Wielkopolskie) dans le groupe Leszno. Tout en continuant d'étudier, il travaille au département de médecine militaire de l’armée polonaise. En mars 1923 il a obtient son diplôme, à l’université de Varsovie. Il est nommé chef sanitaire DOK (Dowództwo Okręgu Korpusu) à Toruń, puis, chef sanitaire DOK I à Varsovie avec le rang de colonel. Entre 1920 et 1939 il travaille à la Croix-Rouge polonaise.
@@ -552,7 +566,9 @@
           <t>Postérité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Aujourd'hui, le musée du château d'Ujazdow, à Varsovie, honore sa vie de patriote et de héros national. Une stèle commémorative a été placée dans le square qui porte son nom, square Colonel Dr. Leon Strehl, en face du château d'Ujazdow.
 La chapelle du musée de Powstanie Warszawskie a accueilli le tableau Vierge à l’enfant peint pour Leon Strehl à Zeithein par l’un des membres du personnel sanitaire de la part de tous ceux avec qui il a partagé la période de détention.
